--- a/data/trans_dic/P15_1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P15_1-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con familiares convivientes con COVID-19</t>
+          <t>Población con familiares convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,22 +686,22 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -710,17 +711,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -735,22 +736,22 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>23,46%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,86</t>
+          <t>0,0; 3,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,25</t>
+          <t>1,72; 9,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,32; 22,25</t>
+          <t>7,61; 19,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,92; 36,44</t>
+          <t>19,01; 36,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,87</t>
+          <t>0,0; 3,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 10,46</t>
+          <t>3,65; 10,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,56; 14,24</t>
+          <t>5,52; 14,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,31; 27,7</t>
+          <t>13,35; 27,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,45</t>
+          <t>0,0; 1,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,32</t>
+          <t>0,0; 2,41</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 8,0</t>
+          <t>3,43; 8,5</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>8,25; 16,72</t>
+          <t>7,47; 14,97</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>18,38; 30,6</t>
+          <t>17,96; 29,67</t>
         </is>
       </c>
     </row>
@@ -855,22 +856,22 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -880,12 +881,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -905,22 +906,22 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>24,16%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,31</t>
+          <t>0,0; 2,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>0,0; 3,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,63</t>
+          <t>0,49; 4,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 13,97</t>
+          <t>4,99; 13,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,86; 35,24</t>
+          <t>17,27; 33,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,5</t>
+          <t>0,0; 3,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,27</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 5,69</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5,69; 13,12</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>17,18; 29,76</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 2,13</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 2,16</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 5,48</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>5,42; 12,77</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>16,96; 29,69</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 2,09</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,92</t>
-        </is>
-      </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,94</t>
+          <t>1,01; 4,18</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,61; 11,95</t>
+          <t>6,21; 11,73</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>19,22; 29,56</t>
+          <t>19,19; 29,54</t>
         </is>
       </c>
     </row>
@@ -1025,17 +1026,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1050,17 +1051,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1075,17 +1076,17 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1103,77 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,83</t>
+          <t>0,0; 2,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,97</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,49</t>
+          <t>1,25; 5,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,83; 12,09</t>
+          <t>5,95; 12,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,99; 23,86</t>
+          <t>13,01; 23,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,42</t>
+          <t>0,54; 3,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,3</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 6,62</t>
+          <t>2,34; 6,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,44; 14,03</t>
+          <t>7,66; 14,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,04; 28,51</t>
+          <t>18,34; 28,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,76</t>
+          <t>0,33; 1,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,02</t>
+          <t>0,0; 1,23</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,16</t>
+          <t>2,08; 4,94</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 12,01</t>
+          <t>7,43; 12,0</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>17,0; 23,95</t>
+          <t>16,98; 24,02</t>
         </is>
       </c>
     </row>
@@ -1195,22 +1196,22 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1220,17 +1221,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1245,17 +1246,17 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1273,77 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>0,0; 2,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,31</t>
+          <t>1,42; 5,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,03; 13,7</t>
+          <t>6,54; 13,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,04; 28,49</t>
+          <t>15,79; 28,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,16</t>
+          <t>0,56; 3,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,81</t>
+          <t>0,31; 2,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,11</t>
+          <t>2,18; 6,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,47; 16,11</t>
+          <t>9,43; 16,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,09; 26,11</t>
+          <t>15,68; 25,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,65</t>
+          <t>0,27; 1,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,17</t>
+          <t>0,34; 2,05</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,2</t>
+          <t>2,25; 4,93</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>9,09; 13,95</t>
+          <t>8,98; 13,61</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>17,11; 25,13</t>
+          <t>16,83; 25,47</t>
         </is>
       </c>
     </row>
@@ -1370,12 +1371,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1390,17 +1391,17 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1415,17 +1416,17 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1443,77 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,02</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 5,32</t>
+          <t>1,43; 5,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,16; 11,61</t>
+          <t>4,92; 11,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,91; 28,91</t>
+          <t>16,37; 28,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,39</t>
+          <t>0,0; 2,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,5</t>
+          <t>0,0; 2,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 9,46</t>
+          <t>3,13; 8,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,83; 9,85</t>
+          <t>3,85; 9,48</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,47; 21,27</t>
+          <t>11,32; 20,83</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,54</t>
+          <t>0,0; 1,63</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,65</t>
+          <t>0,2; 1,71</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,18</t>
+          <t>2,8; 6,22</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,03; 9,48</t>
+          <t>4,89; 9,3</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>15,45; 22,95</t>
+          <t>15,19; 23,14</t>
         </is>
       </c>
     </row>
@@ -1535,22 +1536,22 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1565,12 +1566,12 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1585,17 +1586,17 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1613,77 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,23</t>
+          <t>0,0; 2,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,12</t>
+          <t>0,0; 3,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,33</t>
+          <t>0,42; 4,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 5,44</t>
+          <t>0,43; 5,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,05; 19,84</t>
+          <t>7,94; 19,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,33</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,98</t>
+          <t>1,24; 5,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,77; 9,1</t>
+          <t>2,89; 9,07</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 9,78</t>
+          <t>1,55; 9,93</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,6</t>
+          <t>0,16; 1,43</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,22</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,08</t>
+          <t>1,19; 4,16</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,86</t>
+          <t>2,14; 5,82</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>5,2; 11,75</t>
+          <t>5,07; 11,84</t>
         </is>
       </c>
     </row>
@@ -1705,17 +1706,17 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1730,17 +1731,17 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1755,17 +1756,17 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -1783,77 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,65</t>
+          <t>0,07; 0,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,19</t>
+          <t>0,28; 1,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,7</t>
+          <t>1,95; 3,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,07; 10,23</t>
+          <t>6,73; 10,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,29; 23,92</t>
+          <t>18,42; 24,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,57</t>
+          <t>0,59; 1,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,1</t>
+          <t>0,26; 1,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,31</t>
+          <t>3,32; 5,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,51; 10,41</t>
+          <t>7,46; 10,24</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,91; 19,36</t>
+          <t>14,99; 19,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,38; 0,94</t>
+          <t>0,36; 0,93</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,97</t>
+          <t>0,36; 0,97</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>2,87; 4,22</t>
+          <t>2,87; 4,18</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>7,68; 9,78</t>
+          <t>7,46; 9,54</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>17,37; 20,95</t>
+          <t>17,23; 20,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1873,4 +1881,1969 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con familiares convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4066</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22641</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>64685</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11209</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2482</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3065</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>34588</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>47228</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7438</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2482</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>57228</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>111913</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>18647</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19946</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9011; 49882</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>38826; 101911</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7996; 15509</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12753</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15231</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>18790; 55219</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>28354; 72180</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4992; 10428</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12566</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23405</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>35690; 88319</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>76466; 153257</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>14273; 23579</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3018</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3475</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10021</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>50769</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12681</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4958</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3032</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12717</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>45578</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10777</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7976</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6507</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>22738</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>96347</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>23458</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14330</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 17354</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2773; 25915</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>29668; 77316</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8614; 16893</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18403</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16952</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4432; 28892</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>29427; 67899</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8112; 14050</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2058; 23032</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 23577</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>10835; 44839</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>69026; 130418</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>18626; 28675</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2437</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2637</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17908</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>59408</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10655</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9639</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28305</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>73625</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12409</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>12076</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>46214</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>133032</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>23063</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14594</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12959</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8518; 34876</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>40436; 86830</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7836; 14028</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3767; 21259</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10083</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16797; 44784</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>54681; 99990</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9890; 15597</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4495; 26347</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17217</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>29076; 69057</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>103589; 167228</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>19376; 27413</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4595</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>19879</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>60026</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>12452</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9844</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8544</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>25724</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>82692</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>10731</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9844</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13139</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>45603</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>142719</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>23183</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 15305</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9184; 35374</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>41782; 84518</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9202; 16706</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3960; 22269</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2091; 19497</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>14676; 40628</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>62258; 108438</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>8222; 13491</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3582; 21602</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4548; 27275</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>29620; 65073</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>116621; 176734</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>18629; 28195</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14451</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>37508</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9951</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>28412</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>31885</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>7711</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6473</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>42863</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>69393</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>17662</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8292</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7194; 27755</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>24268; 56373</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7284; 12869</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 14300</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 14106</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>15726; 43901</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>19822; 48851</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5519; 10157</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 16516</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1973; 17219</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>28164; 62594</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>49371; 93768</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>14162; 21580</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2388</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5508</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8933</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9135</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>6194</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>20452</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>36274</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2709</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>7064</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5508</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>29386</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>45409</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>8903</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12007</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 19528</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2199; 22588</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2263; 28339</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3719; 9162</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16950</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8598; 39955</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>20003; 62839</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>989; 6324</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2065; 18310</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16973</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>14609; 50971</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>26187; 71263</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>5606; 13085</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>396.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>7843</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>22271</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>93834</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>281531</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>63142</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>36087</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>21132</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>150198</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>317283</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>51775</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>43929</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>43403</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>244032</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>598813</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>114917</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2353; 22909</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>9546; 43813</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>67355; 131737</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>232148; 344802</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>55574; 72655</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>21405; 54718</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>9429; 41067</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>120072; 190209</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>269423; 369810</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>45480; 59700</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>25532; 65694</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>25704; 68577</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>202872; 295261</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>526518; 673565</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>104274; 126936</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>